--- a/Задание 6..xlsx
+++ b/Задание 6..xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>passed</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>наверное</t>
+  </si>
+  <si>
+    <t>пока не получается, но я надеюсь, что что-то из этого выйдет</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1110,10 @@
   <dimension ref="A1:DT63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1977,7 +1980,9 @@
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2733,7 +2738,7 @@
       </c>
       <c r="E46" s="23">
         <f>COUNTA(D8:D44)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>

--- a/Задание 6..xlsx
+++ b/Задание 6..xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>passed</t>
   </si>
@@ -254,27 +254,6 @@
   </si>
   <si>
     <t>Произведен переход на страницу инстаграмм</t>
-  </si>
-  <si>
-    <t>прошла</t>
-  </si>
-  <si>
-    <t>проверка</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
-    <t>наверное</t>
-  </si>
-  <si>
-    <t>пока не получается, но я надеюсь, что что-то из этого выйдет</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1089,10 @@
   <dimension ref="A1:DT63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1429,9 +1408,6 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1908,15 +1884,9 @@
         <v>11</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
@@ -1944,15 +1914,9 @@
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="20"/>
       <c r="I20" s="21"/>
@@ -1980,9 +1944,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="7"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2738,7 +2700,7 @@
       </c>
       <c r="E46" s="23">
         <f>COUNTA(D8:D44)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
